--- a/biology/Écologie/Sinaï_(écorégion)/Sinaï_(écorégion).xlsx
+++ b/biology/Écologie/Sinaï_(écorégion)/Sinaï_(écorégion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sina%C3%AF_(%C3%A9cor%C3%A9gion)</t>
+          <t>Sinaï_(écorégion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Sinaï forme une écorégion d'eau douce définie par le Fonds mondial pour la nature (WWF) et The Nature Conservancy (TNC). Elle recouvre la péninsule du Sinaï en Egypte, entre la Méditerranée, les bras de la Mer Rouge et les golfes de Suez et d'Aqaba.
